--- a/_datos_iniciales/produccion/10_niveles_evaluacion.xlsx
+++ b/_datos_iniciales/produccion/10_niveles_evaluacion.xlsx
@@ -49,6 +49,9 @@
     <t>Comprensión de las ciencias naturales, aplicación de las matemáticas, los fundamentos, métodos y herramientas propias de su disciplina (FG-CT)</t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
   </si>
   <si>
     <t>Emplea adecuadamente el equipo básico de laboratorio de electrónica respetando las normas de seguridad, para comprobar componentes, circuitos y sistemas electrónicos.</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>1.2</t>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -234,6 +234,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -502,17 +505,17 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5">
-        <v>70.0</v>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
       </c>
       <c r="G2" s="2">
         <v>1.0</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -524,22 +527,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>15.0</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
       </c>
       <c r="G3" s="2">
         <v>1.0</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -551,22 +554,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
-        <v>15.0</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
       </c>
       <c r="G4" s="2">
         <v>1.0</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>1.0</v>
       </c>
     </row>
@@ -578,16 +581,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15.0</v>
       </c>
       <c r="G5" s="2">
         <v>1.0</v>
@@ -595,7 +598,7 @@
       <c r="H5" s="2">
         <v>1.0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>2.0</v>
       </c>
     </row>
@@ -613,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15.0</v>
       </c>
       <c r="G6" s="2">
         <v>1.0</v>
@@ -624,7 +627,7 @@
       <c r="H6" s="2">
         <v>1.0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>2.0</v>
       </c>
     </row>
@@ -642,10 +645,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20.0</v>
       </c>
       <c r="G7" s="2">
         <v>1.0</v>
@@ -653,7 +656,7 @@
       <c r="H7" s="2">
         <v>1.0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>2.0</v>
       </c>
     </row>
@@ -671,10 +674,10 @@
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20.0</v>
       </c>
       <c r="G8" s="2">
         <v>1.0</v>
@@ -682,7 +685,7 @@
       <c r="H8" s="2">
         <v>1.0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>2.0</v>
       </c>
     </row>
@@ -700,10 +703,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15.0</v>
       </c>
       <c r="G9" s="2">
         <v>1.0</v>
@@ -711,7 +714,7 @@
       <c r="H9" s="2">
         <v>2.0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>2.0</v>
       </c>
     </row>
@@ -729,10 +732,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15.0</v>
       </c>
       <c r="G10" s="2">
         <v>1.0</v>
@@ -740,7 +743,7 @@
       <c r="H10" s="2">
         <v>3.0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>2.0</v>
       </c>
     </row>
@@ -758,9 +761,9 @@
         <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6">
         <v>0.0</v>
       </c>
       <c r="G11" s="2">
@@ -769,7 +772,7 @@
       <c r="H11" s="2">
         <v>4.0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -787,9 +790,9 @@
         <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="5">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6">
         <v>0.0</v>
       </c>
       <c r="G12" s="2">
@@ -798,7 +801,7 @@
       <c r="H12" s="2">
         <v>4.0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -816,9 +819,9 @@
         <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
         <v>0.0</v>
       </c>
       <c r="G13" s="2">
@@ -827,7 +830,7 @@
       <c r="H13" s="2">
         <v>4.0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -845,9 +848,9 @@
         <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="5">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
         <v>0.0</v>
       </c>
       <c r="G14" s="2">
@@ -856,7 +859,7 @@
       <c r="H14" s="2">
         <v>5.0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -874,9 +877,9 @@
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6">
         <v>0.0</v>
       </c>
       <c r="G15" s="2">
@@ -885,7 +888,7 @@
       <c r="H15" s="2">
         <v>5.0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -903,9 +906,9 @@
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
         <v>0.0</v>
       </c>
       <c r="G16" s="2">
@@ -914,7 +917,7 @@
       <c r="H16" s="2">
         <v>6.0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -932,9 +935,9 @@
         <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="5">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6">
         <v>0.0</v>
       </c>
       <c r="G17" s="2">
@@ -943,7 +946,7 @@
       <c r="H17" s="2">
         <v>6.0</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -961,9 +964,9 @@
         <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="5">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6">
         <v>0.0</v>
       </c>
       <c r="G18" s="2">
@@ -972,7 +975,7 @@
       <c r="H18" s="2">
         <v>7.0</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -990,9 +993,9 @@
         <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="5">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
         <v>0.0</v>
       </c>
       <c r="G19" s="2">
@@ -1001,7 +1004,7 @@
       <c r="H19" s="2">
         <v>7.0</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -1019,9 +1022,9 @@
         <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="5">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6">
         <v>0.0</v>
       </c>
       <c r="G20" s="2">
@@ -1030,7 +1033,7 @@
       <c r="H20" s="2">
         <v>8.0</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -1048,9 +1051,9 @@
         <v>50</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="5">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6">
         <v>0.0</v>
       </c>
       <c r="G21" s="2">
@@ -1059,7 +1062,7 @@
       <c r="H21" s="2">
         <v>8.0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -1077,9 +1080,9 @@
         <v>52</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="5">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6">
         <v>0.0</v>
       </c>
       <c r="G22" s="2">
@@ -1088,7 +1091,7 @@
       <c r="H22" s="2">
         <v>9.0</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -1106,9 +1109,9 @@
         <v>54</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="5">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6">
         <v>0.0</v>
       </c>
       <c r="G23" s="2">
@@ -1117,7 +1120,7 @@
       <c r="H23" s="2">
         <v>9.0</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -1135,9 +1138,9 @@
         <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="5">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6">
         <v>0.0</v>
       </c>
       <c r="G24" s="2">
@@ -1146,7 +1149,7 @@
       <c r="H24" s="2">
         <v>9.0</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>3.0</v>
       </c>
     </row>
